--- a/ejeep_logbook.xlsx
+++ b/ejeep_logbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Love\Documents\ITM PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Love\Documents\Formative 1\GitHub HW\EJEEP-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0507FA3-A8FC-4900-823C-7F23AC6D296C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB33445C-F97E-4496-A89D-3E56493565F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="2505" windowWidth="21585" windowHeight="11295" xr2:uid="{ABFC0E92-83D9-44B0-A436-2DD4832AD0C7}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ejeep_logbook.xlsx
+++ b/ejeep_logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Love\Documents\Formative 1\GitHub HW\EJEEP-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB33445C-F97E-4496-A89D-3E56493565F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9057D5C-9021-4AF4-A91D-A1BC690269FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="2505" windowWidth="21585" windowHeight="11295" xr2:uid="{ABFC0E92-83D9-44B0-A436-2DD4832AD0C7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>LINE A - 1</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>SHS FLC BUILDING</t>
+  </si>
+  <si>
+    <t>guds</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2767A68-C395-4E3A-A1A9-89356F40C69E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,6 +511,11 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ejeep_logbook.xlsx
+++ b/ejeep_logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Love\Documents\Formative 1\GitHub HW\EJEEP-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9057D5C-9021-4AF4-A91D-A1BC690269FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A60E70-CC40-4074-8649-E7F3E5D76E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2505" windowWidth="21585" windowHeight="11295" xr2:uid="{ABFC0E92-83D9-44B0-A436-2DD4832AD0C7}"/>
+    <workbookView xWindow="6060" yWindow="2505" windowWidth="21585" windowHeight="11295" activeTab="1" xr2:uid="{ABFC0E92-83D9-44B0-A436-2DD4832AD0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="LINE A" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
-  <si>
-    <t>LINE A - 1</t>
-  </si>
-  <si>
-    <t>LINE A - 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>LOCATION</t>
   </si>
@@ -54,31 +48,46 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>INFO</t>
-  </si>
-  <si>
-    <t>XAVIER</t>
-  </si>
-  <si>
-    <t>For Charging</t>
-  </si>
-  <si>
-    <t>LEONG</t>
-  </si>
-  <si>
-    <t>Running</t>
-  </si>
-  <si>
-    <t>LINE B - 1</t>
-  </si>
-  <si>
-    <t>LINE B - 2</t>
-  </si>
-  <si>
-    <t>SHS FLC BUILDING</t>
-  </si>
-  <si>
-    <t>guds</t>
+    <t>LINE A1</t>
+  </si>
+  <si>
+    <t>EJEEP</t>
+  </si>
+  <si>
+    <t>LINE A2</t>
+  </si>
+  <si>
+    <t>LINE A3</t>
+  </si>
+  <si>
+    <t>XAVIER HALL</t>
+  </si>
+  <si>
+    <t>LEONG HALL</t>
+  </si>
+  <si>
+    <t>HAGDAN NA BATO</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+  </si>
+  <si>
+    <t>LINE B1</t>
+  </si>
+  <si>
+    <t>LINE B2</t>
+  </si>
+  <si>
+    <t>LINE B3</t>
+  </si>
+  <si>
+    <t>ASHS FLC BUILDING</t>
+  </si>
+  <si>
+    <t>AJHS</t>
+  </si>
+  <si>
+    <t>FOR CHARGING</t>
   </si>
 </sst>
 </file>
@@ -114,12 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,22 +468,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2767A68-C395-4E3A-A1A9-89356F40C69E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -479,43 +493,50 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.65329861111111109</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.69496527777777795</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.50069444444444444</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.50138888888888888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
+      <c r="C4" s="3">
+        <v>0.73663194444444402</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -526,10 +547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD05D66-E72C-4AF4-830E-FE6C5B925CBD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,50 +558,63 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.65329861111111109</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.50069444444444444</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.50138888888888888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.69496527777777795</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.73663194444444402</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ejeep_logbook.xlsx
+++ b/ejeep_logbook.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Love\Documents\Formative 1\GitHub HW\EJEEP-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A60E70-CC40-4074-8649-E7F3E5D76E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F5F05F-2663-4F08-ABAD-6BD955016DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2505" windowWidth="21585" windowHeight="11295" activeTab="1" xr2:uid="{ABFC0E92-83D9-44B0-A436-2DD4832AD0C7}"/>
+    <workbookView xWindow="5310" yWindow="1875" windowWidth="21585" windowHeight="12180" activeTab="1" xr2:uid="{ABFC0E92-83D9-44B0-A436-2DD4832AD0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="LINE A" sheetId="1" r:id="rId1"/>
     <sheet name="LINE B" sheetId="2" r:id="rId2"/>
+    <sheet name="EXPRESS" sheetId="5" r:id="rId3"/>
+    <sheet name="LINE A BACKEND" sheetId="3" r:id="rId4"/>
+    <sheet name="LINE B BACKEND" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>LOCATION</t>
   </si>
@@ -63,9 +66,6 @@
     <t>XAVIER HALL</t>
   </si>
   <si>
-    <t>LEONG HALL</t>
-  </si>
-  <si>
     <t>HAGDAN NA BATO</t>
   </si>
   <si>
@@ -88,6 +88,33 @@
   </si>
   <si>
     <t>FOR CHARGING</t>
+  </si>
+  <si>
+    <t>LAST SEEN AT</t>
+  </si>
+  <si>
+    <t>ON THE WAY TO</t>
+  </si>
+  <si>
+    <t>OLD COMM</t>
+  </si>
+  <si>
+    <t>ARETE</t>
+  </si>
+  <si>
+    <t>GATE 1</t>
+  </si>
+  <si>
+    <t>EXPRESS 1</t>
+  </si>
+  <si>
+    <t>EXPRESS 2</t>
+  </si>
+  <si>
+    <t>EXPRESS 3</t>
+  </si>
+  <si>
+    <t>GATE 2.5</t>
   </si>
 </sst>
 </file>
@@ -468,75 +495,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2767A68-C395-4E3A-A1A9-89356F40C69E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.65329861111111109</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.69496527777777795</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.73663194444444402</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.73663194444444402</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -547,21 +586,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD05D66-E72C-4AF4-830E-FE6C5B925CBD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,55 +608,189 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.65329861111111109</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.69496527777777795</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.73663194444444402</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.69496527777777795</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.73663194444444402</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEE693D-127E-47C1-A765-D285338B5DC0}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.65329861111111109</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.69496527777777795</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.73663194444444402</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B1570E-B887-4DBD-A507-BB6E0113FDAB}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E9D5F8-03AF-410D-91D1-B9685BB59064}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ejeep_logbook.xlsx
+++ b/ejeep_logbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Love\Documents\Formative 1\GitHub HW\EJEEP-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F5F05F-2663-4F08-ABAD-6BD955016DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F11CB-5C63-4066-AB81-526CC2EAE854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1875" windowWidth="21585" windowHeight="12180" activeTab="1" xr2:uid="{ABFC0E92-83D9-44B0-A436-2DD4832AD0C7}"/>
+    <workbookView xWindow="5310" yWindow="1875" windowWidth="21585" windowHeight="12180" xr2:uid="{ABFC0E92-83D9-44B0-A436-2DD4832AD0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="LINE A" sheetId="1" r:id="rId1"/>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2767A68-C395-4E3A-A1A9-89356F40C69E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
         <v>0.73663194444444402</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD05D66-E72C-4AF4-830E-FE6C5B925CBD}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
